--- a/Konfigurationen.xlsx
+++ b/Konfigurationen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkrause\Documents\Dok\BA\5.Semester\Softwareprojekt\repo\pcconfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557DF442-8D1C-4C9D-8EAC-E5BC806C1EAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BC6897-3C69-4718-A0F7-EDDF63712E57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="6863" xr2:uid="{82F1D6C4-2E6C-4A9B-929D-8A2CAC944E44}"/>
   </bookViews>
@@ -415,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9044C8CB-CC3B-4963-83E8-2D4683D5257D}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -426,7 +426,7 @@
     <col min="1" max="1" width="15.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,8 +460,26 @@
       <c r="K1" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L1" s="1">
+        <v>1100</v>
+      </c>
+      <c r="M1" s="1">
+        <v>1200</v>
+      </c>
+      <c r="N1" s="1">
+        <v>1300</v>
+      </c>
+      <c r="O1" s="1">
+        <v>1400</v>
+      </c>
+      <c r="P1" s="1">
+        <v>1500</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -492,8 +510,14 @@
       <c r="J2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L2" s="1">
+        <v>35</v>
+      </c>
+      <c r="Q2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -513,7 +537,7 @@
         <v>90</v>
       </c>
       <c r="G3" s="1">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H3" s="1">
         <v>135</v>
@@ -524,8 +548,17 @@
       <c r="J3" s="1">
         <v>165</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K3" s="1">
+        <v>190</v>
+      </c>
+      <c r="L3" s="1">
+        <v>200</v>
+      </c>
+      <c r="Q3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -545,7 +578,7 @@
         <v>195</v>
       </c>
       <c r="G4" s="1">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="H4" s="1">
         <v>310</v>
@@ -556,8 +589,17 @@
       <c r="J4" s="1">
         <v>350</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K4" s="1">
+        <v>400</v>
+      </c>
+      <c r="L4" s="1">
+        <v>430</v>
+      </c>
+      <c r="Q4">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -583,13 +625,22 @@
         <v>70</v>
       </c>
       <c r="I5" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J5" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K5" s="1">
+        <v>120</v>
+      </c>
+      <c r="L5" s="1">
+        <v>120</v>
+      </c>
+      <c r="Q5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -609,19 +660,28 @@
         <v>40</v>
       </c>
       <c r="G6" s="1">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H6" s="1">
         <v>50</v>
       </c>
       <c r="I6" s="1">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J6" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K6" s="1">
+        <v>75</v>
+      </c>
+      <c r="L6" s="1">
+        <v>75</v>
+      </c>
+      <c r="Q6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -641,19 +701,28 @@
         <v>45</v>
       </c>
       <c r="G7" s="1">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1">
         <v>45</v>
       </c>
       <c r="I7" s="1">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="J7" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K7" s="1">
+        <v>50</v>
+      </c>
+      <c r="L7" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -684,8 +753,14 @@
       <c r="J8" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L8" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -705,19 +780,28 @@
         <v>30</v>
       </c>
       <c r="G9" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H9" s="1">
         <v>40</v>
       </c>
       <c r="I9" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K9" s="1">
+        <v>70</v>
+      </c>
+      <c r="L9" s="1">
+        <v>75</v>
+      </c>
+      <c r="Q9">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -748,8 +832,17 @@
       <c r="J10" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K10" s="1">
+        <v>35</v>
+      </c>
+      <c r="L10" s="1">
+        <v>35</v>
+      </c>
+      <c r="Q10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -790,53 +883,101 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <f t="shared" ref="K11" si="2">K1-K12</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+        <f t="shared" ref="K11:P11" si="2">K1-K12</f>
+        <v>60</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>1300</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" ref="Q11" si="3">Q1-Q12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:K12" si="3">SUM(B2:B10)</f>
+        <f t="shared" ref="B12:K12" si="4">SUM(B2:B10)</f>
         <v>120</v>
       </c>
       <c r="C12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="D12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>600</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>700</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>800</v>
       </c>
       <c r="J12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
       <c r="K12">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>940</v>
+      </c>
+      <c r="L12">
+        <f>SUM(L2:L10)</f>
+        <v>1100</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12:P12" si="5">SUM(M2:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" ref="Q12" si="6">SUM(Q2:Q10)</f>
+        <v>1600</v>
       </c>
     </row>
   </sheetData>

--- a/Konfigurationen.xlsx
+++ b/Konfigurationen.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20354"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,66 +8,61 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkrause\Documents\Dok\BA\5.Semester\Softwareprojekt\repo\pcconfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BC6897-3C69-4718-A0F7-EDDF63712E57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{12DB32FE-0EC7-469E-9A0B-8E302F4F7A6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="6863" xr2:uid="{82F1D6C4-2E6C-4A9B-929D-8A2CAC944E44}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="6863"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Konfigurationen" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
-    <t>Preisklasse in USD</t>
+    <t>Preis</t>
   </si>
   <si>
-    <t>Gehäuselüfter</t>
+    <t>case-fan</t>
   </si>
   <si>
-    <t>CPU</t>
+    <t>cpu</t>
   </si>
   <si>
-    <t>Grafikkarte</t>
+    <t>video-card</t>
   </si>
   <si>
-    <t>Motherboard</t>
+    <t>motherboard</t>
   </si>
   <si>
-    <t>RAM</t>
+    <t>ram</t>
   </si>
   <si>
-    <t>PSU</t>
+    <t>psu</t>
   </si>
   <si>
-    <t>Storage</t>
+    <t>storage</t>
   </si>
   <si>
-    <t>Gehäuse</t>
+    <t>case</t>
   </si>
   <si>
-    <t>CPU-Kühler</t>
+    <t>cooler</t>
+  </si>
+  <si>
+    <t>Differenz</t>
   </si>
   <si>
     <t>Summe</t>
-  </si>
-  <si>
-    <t>Differenz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,16 +70,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -92,18 +387,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -414,570 +895,1237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9044C8CB-CC3B-4963-83E8-2D4683D5257D}">
-  <dimension ref="A1:Q12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="15.86328125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
         <v>100</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1">
         <v>200</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1">
         <v>300</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1">
         <v>400</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1">
         <v>500</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1">
         <v>600</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1">
         <v>700</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1">
         <v>800</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1">
         <v>900</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1">
         <v>1000</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1">
         <v>1100</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1">
         <v>1200</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1">
         <v>1300</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1">
         <v>1400</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1">
         <v>1500</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1">
         <v>1600</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="R1">
+        <v>1700</v>
+      </c>
+      <c r="S1">
+        <v>1800</v>
+      </c>
+      <c r="T1">
+        <v>1900</v>
+      </c>
+      <c r="U1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
         <v>35</v>
       </c>
-      <c r="Q2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1">
-        <v>35</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>60</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>80</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>90</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>135</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>135</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>135</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3">
         <v>165</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3">
         <v>190</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3">
         <v>200</v>
+      </c>
+      <c r="N3">
+        <v>220</v>
       </c>
       <c r="Q3">
         <v>220</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="S3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>25</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>55</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>80</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4">
         <v>150</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>195</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>230</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>310</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>350</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>350</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4">
         <v>400</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4">
         <v>430</v>
+      </c>
+      <c r="N4">
+        <v>520</v>
       </c>
       <c r="Q4">
         <v>760</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="S4">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>20</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>30</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>40</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>40</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>60</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>70</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>70</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>90</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5">
         <v>110</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <v>120</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5">
         <v>120</v>
+      </c>
+      <c r="N5">
+        <v>110</v>
       </c>
       <c r="Q5">
         <v>120</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+      <c r="S5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>15</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>25</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>30</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>40</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>35</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>50</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6">
         <v>60</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6">
         <v>65</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6">
         <v>75</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6">
         <v>75</v>
+      </c>
+      <c r="N6">
+        <v>90</v>
       </c>
       <c r="Q6">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+      <c r="S6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>30</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>35</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>40</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>40</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>45</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>50</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>45</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7">
         <v>55</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7">
         <v>70</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7">
         <v>50</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7">
         <v>50</v>
+      </c>
+      <c r="N7">
+        <v>95</v>
       </c>
       <c r="Q7">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+      <c r="S7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>15</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>20</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>35</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8">
         <v>40</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>40</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>40</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>50</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8">
         <v>50</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8">
         <v>50</v>
       </c>
-      <c r="L8" s="1">
+      <c r="K8">
+        <v>60</v>
+      </c>
+      <c r="L8">
         <v>80</v>
+      </c>
+      <c r="N8">
+        <v>85</v>
       </c>
       <c r="Q8">
         <v>90</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+      <c r="S8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>10</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>20</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>20</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>30</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>40</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>40</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9">
         <v>60</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9">
         <v>70</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9">
         <v>70</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9">
         <v>75</v>
       </c>
+      <c r="N9">
+        <v>90</v>
+      </c>
       <c r="Q9">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="S9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>20</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10">
         <v>35</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10">
+        <v>70</v>
+      </c>
+      <c r="N10">
+        <v>90</v>
+      </c>
+      <c r="Q10">
+        <v>105</v>
+      </c>
+      <c r="S10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>-20</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1200</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1400</v>
+      </c>
+      <c r="P11">
+        <v>1500</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1700</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1900</v>
+      </c>
+      <c r="U11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>120</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12">
+        <v>300</v>
+      </c>
+      <c r="E12">
+        <v>400</v>
+      </c>
+      <c r="F12">
+        <v>500</v>
+      </c>
+      <c r="G12">
+        <v>600</v>
+      </c>
+      <c r="H12">
+        <v>700</v>
+      </c>
+      <c r="I12">
+        <v>800</v>
+      </c>
+      <c r="J12">
+        <v>900</v>
+      </c>
+      <c r="K12">
+        <v>1000</v>
+      </c>
+      <c r="L12">
+        <v>1100</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1300</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1600</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1800</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>100</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <v>15</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>-20</v>
+      </c>
+      <c r="L25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>200</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
         <v>35</v>
       </c>
-      <c r="Q10">
+      <c r="D26">
+        <v>55</v>
+      </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>35</v>
+      </c>
+      <c r="H26">
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>300</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>60</v>
+      </c>
+      <c r="D27">
+        <v>80</v>
+      </c>
+      <c r="E27">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <f>B1-B12</f>
-        <v>-20</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ref="C11:I11" si="0">C1-C12</f>
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f t="shared" ref="J11" si="1">J1-J12</f>
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <f t="shared" ref="K11:P11" si="2">K1-K12</f>
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>40</v>
+      </c>
+      <c r="H27">
+        <v>35</v>
+      </c>
+      <c r="I27">
+        <v>20</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>400</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>80</v>
+      </c>
+      <c r="D28">
+        <v>150</v>
+      </c>
+      <c r="E28">
+        <v>40</v>
+      </c>
+      <c r="F28">
+        <v>30</v>
+      </c>
+      <c r="G28">
+        <v>40</v>
+      </c>
+      <c r="H28">
+        <v>40</v>
+      </c>
+      <c r="I28">
+        <v>20</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>500</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>90</v>
+      </c>
+      <c r="D29">
+        <v>195</v>
+      </c>
+      <c r="E29">
         <v>60</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="2"/>
+      <c r="F29">
+        <v>40</v>
+      </c>
+      <c r="G29">
+        <v>45</v>
+      </c>
+      <c r="H29">
+        <v>40</v>
+      </c>
+      <c r="I29">
+        <v>30</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>600</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>135</v>
+      </c>
+      <c r="D30">
+        <v>230</v>
+      </c>
+      <c r="E30">
+        <v>70</v>
+      </c>
+      <c r="F30">
+        <v>35</v>
+      </c>
+      <c r="G30">
+        <v>50</v>
+      </c>
+      <c r="H30">
+        <v>40</v>
+      </c>
+      <c r="I30">
+        <v>40</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>700</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>135</v>
+      </c>
+      <c r="D31">
+        <v>310</v>
+      </c>
+      <c r="E31">
+        <v>70</v>
+      </c>
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31">
+        <v>45</v>
+      </c>
+      <c r="H31">
+        <v>50</v>
+      </c>
+      <c r="I31">
+        <v>40</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>800</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>135</v>
+      </c>
+      <c r="D32">
+        <v>350</v>
+      </c>
+      <c r="E32">
+        <v>90</v>
+      </c>
+      <c r="F32">
+        <v>60</v>
+      </c>
+      <c r="G32">
+        <v>55</v>
+      </c>
+      <c r="H32">
+        <v>50</v>
+      </c>
+      <c r="I32">
+        <v>60</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>900</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>165</v>
+      </c>
+      <c r="D33">
+        <v>350</v>
+      </c>
+      <c r="E33">
+        <v>110</v>
+      </c>
+      <c r="F33">
+        <v>65</v>
+      </c>
+      <c r="G33">
+        <v>70</v>
+      </c>
+      <c r="H33">
+        <v>50</v>
+      </c>
+      <c r="I33">
+        <v>70</v>
+      </c>
+      <c r="J33">
+        <v>20</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>1000</v>
+      </c>
+      <c r="C34">
+        <v>190</v>
+      </c>
+      <c r="D34">
+        <v>400</v>
+      </c>
+      <c r="E34">
+        <v>120</v>
+      </c>
+      <c r="F34">
+        <v>75</v>
+      </c>
+      <c r="G34">
+        <v>50</v>
+      </c>
+      <c r="H34">
+        <v>60</v>
+      </c>
+      <c r="I34">
+        <v>70</v>
+      </c>
+      <c r="J34">
+        <v>35</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>1100</v>
+      </c>
+      <c r="C35">
+        <v>200</v>
+      </c>
+      <c r="D35">
+        <v>430</v>
+      </c>
+      <c r="E35">
+        <v>120</v>
+      </c>
+      <c r="F35">
+        <v>75</v>
+      </c>
+      <c r="G35">
+        <v>50</v>
+      </c>
+      <c r="H35">
+        <v>80</v>
+      </c>
+      <c r="I35">
+        <v>75</v>
+      </c>
+      <c r="J35">
+        <v>70</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A36">
         <v>1200</v>
       </c>
-      <c r="N11">
-        <f t="shared" si="2"/>
+      <c r="K36">
+        <v>1200</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A37">
         <v>1300</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="2"/>
+      <c r="C37">
+        <v>220</v>
+      </c>
+      <c r="D37">
+        <v>520</v>
+      </c>
+      <c r="E37">
+        <v>110</v>
+      </c>
+      <c r="F37">
+        <v>90</v>
+      </c>
+      <c r="G37">
+        <v>95</v>
+      </c>
+      <c r="H37">
+        <v>85</v>
+      </c>
+      <c r="I37">
+        <v>90</v>
+      </c>
+      <c r="J37">
+        <v>90</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A38">
         <v>1400</v>
       </c>
-      <c r="P11">
-        <f t="shared" si="2"/>
+      <c r="K38">
+        <v>1400</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A39">
         <v>1500</v>
       </c>
-      <c r="Q11">
-        <f t="shared" ref="Q11" si="3">Q1-Q12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <f t="shared" ref="B12:K12" si="4">SUM(B2:B10)</f>
+      <c r="K39">
+        <v>1500</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>1600</v>
+      </c>
+      <c r="C40">
+        <v>220</v>
+      </c>
+      <c r="D40">
+        <v>760</v>
+      </c>
+      <c r="E40">
         <v>120</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="4"/>
-        <v>400</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="4"/>
-        <v>500</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="4"/>
-        <v>600</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="4"/>
-        <v>700</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="4"/>
-        <v>800</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="4"/>
-        <v>900</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="4"/>
-        <v>940</v>
-      </c>
-      <c r="L12">
-        <f>SUM(L2:L10)</f>
-        <v>1100</v>
-      </c>
-      <c r="M12">
-        <f t="shared" ref="M12:P12" si="5">SUM(M2:M10)</f>
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" ref="Q12" si="6">SUM(Q2:Q10)</f>
+      <c r="F40">
+        <v>90</v>
+      </c>
+      <c r="G40">
+        <v>95</v>
+      </c>
+      <c r="H40">
+        <v>90</v>
+      </c>
+      <c r="I40">
+        <v>120</v>
+      </c>
+      <c r="J40">
+        <v>105</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
         <v>1600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>1700</v>
+      </c>
+      <c r="K41">
+        <v>1700</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>1800</v>
+      </c>
+      <c r="C42">
+        <v>360</v>
+      </c>
+      <c r="D42">
+        <v>780</v>
+      </c>
+      <c r="E42">
+        <v>150</v>
+      </c>
+      <c r="F42">
+        <v>90</v>
+      </c>
+      <c r="G42">
+        <v>145</v>
+      </c>
+      <c r="H42">
+        <v>75</v>
+      </c>
+      <c r="I42">
+        <v>120</v>
+      </c>
+      <c r="J42">
+        <v>80</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>1900</v>
+      </c>
+      <c r="K43">
+        <v>1900</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>2000</v>
+      </c>
+      <c r="K44">
+        <v>2000</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Konfigurationen.xlsx
+++ b/Konfigurationen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkrause\Documents\Dok\BA\5.Semester\Softwareprojekt\repo\pcconfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69E4ACBC-B991-46B6-8DAB-13F41425F072}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024D5041-F6BB-4459-A4FA-A387743B0411}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="6863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -890,7 +890,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
